--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s0_P2_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s0_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2853.964702559057</v>
+        <v>1824.899659681731</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.31204711617629</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.1702405339827</v>
+        <v>15.23250213508452</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.69289597687557</v>
+        <v>9.361415491259855</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2423.379999999988</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>397.7500000000001</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,61 +634,6 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -912,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.20851569551316</v>
+        <v>14.35124120223184</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.09486359553446</v>
+        <v>18.23758910225314</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.37739353073907</v>
+        <v>24.57220118279982</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>21.42208278257345</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.80519234793928</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1143,7 +1088,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1157,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1171,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1185,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1196,13 +1141,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1210,13 +1155,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1230,7 +1175,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1244,7 +1189,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -1258,7 +1203,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -1266,13 +1211,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -1280,15 +1225,57 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1391,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>125.5049999999979</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -1402,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>131.3399999999993</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -1413,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>134.4649999999991</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -1424,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>137.05</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1435,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>135.25</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>231.7649999999987</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
@@ -1457,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>241.2050000000001</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
@@ -1468,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>242.1899999999999</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
@@ -1479,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>249.0099999999985</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
@@ -1490,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>246.2</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -1501,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1512,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1523,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1534,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1545,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1556,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>208.0599999999994</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23">
@@ -1567,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>189.4349999999993</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
@@ -1578,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>206.7149999999993</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
@@ -1589,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>193.8399999999993</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26">
@@ -1600,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>203.2699999999994</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
@@ -1611,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999721</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
@@ -1622,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999862</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
@@ -1633,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999844</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
@@ -1644,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999707</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
@@ -1655,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999706</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32">
@@ -1666,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>208.0599999999994</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33">
@@ -1677,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>189.4349999999993</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34">
@@ -1688,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>206.7149999999993</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
@@ -1699,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>193.8399999999993</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36">
@@ -1710,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>203.2699999999994</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>231.7649999999987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1732,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>241.2050000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1743,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>242.1899999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1754,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>249.0099999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1765,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>246.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>108.0599999999994</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3">
@@ -1823,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>89.43499999999935</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1834,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>106.7149999999993</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5">
@@ -1845,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>93.83999999999935</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6">
@@ -1856,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>103.2699999999994</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
@@ -1867,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>131.7649999999987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1878,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>141.2050000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1889,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>142.1899999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1900,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>149.0099999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1911,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>146.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1958,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1969,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1980,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1991,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2002,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2013,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2024,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2035,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2046,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2057,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2068,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2079,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2090,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -2101,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2112,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2178,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2189,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2200,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2211,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2222,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2236,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2373,10 +2360,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2384,10 +2371,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2398,7 +2385,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2409,7 +2396,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2420,7 +2407,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -2428,10 +2415,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -2439,12 +2426,45 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
